--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H2">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I2">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J2">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>278.624867498992</v>
+        <v>183.6760610339178</v>
       </c>
       <c r="R2">
-        <v>2507.623807490928</v>
+        <v>1653.084549305261</v>
       </c>
       <c r="S2">
-        <v>0.0008393144066344624</v>
+        <v>0.0005297687090751441</v>
       </c>
       <c r="T2">
-        <v>0.0008977455335049498</v>
+        <v>0.000561783380107019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H3">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I3">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J3">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>13117.18583192671</v>
+        <v>11740.39226535382</v>
       </c>
       <c r="R3">
-        <v>118054.6724873404</v>
+        <v>105663.5303881844</v>
       </c>
       <c r="S3">
-        <v>0.03951349763594728</v>
+        <v>0.03386229223036182</v>
       </c>
       <c r="T3">
-        <v>0.0422643359096769</v>
+        <v>0.03590863835758556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H4">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I4">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J4">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>8283.855224605035</v>
+        <v>8661.204838513562</v>
       </c>
       <c r="R4">
-        <v>74554.69702144532</v>
+        <v>77950.84354662205</v>
       </c>
       <c r="S4">
-        <v>0.02495383522258766</v>
+        <v>0.02498112862670447</v>
       </c>
       <c r="T4">
-        <v>0.02669106348921895</v>
+        <v>0.02649077349868096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H5">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I5">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J5">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>2926.866454184676</v>
+        <v>1845.876856582521</v>
       </c>
       <c r="R5">
-        <v>17561.19872510806</v>
+        <v>11075.26113949513</v>
       </c>
       <c r="S5">
-        <v>0.008816733421331142</v>
+        <v>0.005323980675101853</v>
       </c>
       <c r="T5">
-        <v>0.006287022667181154</v>
+        <v>0.003763810895896615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H6">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I6">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J6">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>9866.982134069305</v>
+        <v>10840.3298609728</v>
       </c>
       <c r="R6">
-        <v>88802.83920662376</v>
+        <v>97562.96874875516</v>
       </c>
       <c r="S6">
-        <v>0.02972276067626728</v>
+        <v>0.03126628219306058</v>
       </c>
       <c r="T6">
-        <v>0.03179199049799782</v>
+        <v>0.03315574776860973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>605.249321</v>
       </c>
       <c r="I7">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J7">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>796.2407207359671</v>
+        <v>586.4555898337798</v>
       </c>
       <c r="R7">
-        <v>7166.166486623704</v>
+        <v>5278.100308504018</v>
       </c>
       <c r="S7">
-        <v>0.002398552268724265</v>
+        <v>0.001691487823765842</v>
       </c>
       <c r="T7">
-        <v>0.002565533927577597</v>
+        <v>0.001793706821046417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>605.249321</v>
       </c>
       <c r="I8">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J8">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>37485.66161589553</v>
@@ -948,10 +948,10 @@
         <v>337370.9545430598</v>
       </c>
       <c r="S8">
-        <v>0.1129197695771337</v>
+        <v>0.1081182297317097</v>
       </c>
       <c r="T8">
-        <v>0.1207809826460299</v>
+        <v>0.114651966998775</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>605.249321</v>
       </c>
       <c r="I9">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J9">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>23673.20230142696</v>
+        <v>27654.18619960327</v>
       </c>
       <c r="R9">
-        <v>213058.8207128427</v>
+        <v>248887.6757964294</v>
       </c>
       <c r="S9">
-        <v>0.0713118678928816</v>
+        <v>0.07976174162827972</v>
       </c>
       <c r="T9">
-        <v>0.07627643512452109</v>
+        <v>0.08458185628476195</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>605.249321</v>
       </c>
       <c r="I10">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J10">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>8364.257921042752</v>
+        <v>5893.662977058972</v>
       </c>
       <c r="R10">
-        <v>50185.54752625651</v>
+        <v>35361.97786235383</v>
       </c>
       <c r="S10">
-        <v>0.02519603593517365</v>
+        <v>0.01699883049268973</v>
       </c>
       <c r="T10">
-        <v>0.01796675043665223</v>
+        <v>0.01201739587919545</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>605.249321</v>
       </c>
       <c r="I11">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J11">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>28197.38609996352</v>
+        <v>34611.87052261305</v>
       </c>
       <c r="R11">
-        <v>253776.4748996717</v>
+        <v>311506.8347035174</v>
       </c>
       <c r="S11">
-        <v>0.08494027326264889</v>
+        <v>0.09982948165495964</v>
       </c>
       <c r="T11">
-        <v>0.09085361854088055</v>
+        <v>0.1058623181734577</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H12">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I12">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J12">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>554.3753336870623</v>
+        <v>495.0151223916638</v>
       </c>
       <c r="R12">
-        <v>4989.378003183559</v>
+        <v>4455.136101524975</v>
       </c>
       <c r="S12">
-        <v>0.001669970122993498</v>
+        <v>0.001427750142756382</v>
       </c>
       <c r="T12">
-        <v>0.001786229578753148</v>
+        <v>0.001514031099621229</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H13">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I13">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J13">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>26099.04972906227</v>
+        <v>31640.87732198848</v>
       </c>
       <c r="R13">
-        <v>234891.4475615604</v>
+        <v>284767.8958978963</v>
       </c>
       <c r="S13">
-        <v>0.07861935883074209</v>
+        <v>0.09126037785500792</v>
       </c>
       <c r="T13">
-        <v>0.08409265667241271</v>
+        <v>0.09677537133277155</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H14">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I14">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J14">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>16482.251012187</v>
+        <v>23342.33078095212</v>
       </c>
       <c r="R14">
-        <v>148340.259109683</v>
+        <v>210080.9770285691</v>
       </c>
       <c r="S14">
-        <v>0.04965023708210126</v>
+        <v>0.0673252484565557</v>
       </c>
       <c r="T14">
-        <v>0.05310677170031081</v>
+        <v>0.07139380827247745</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H15">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I15">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J15">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>5823.538228158937</v>
+        <v>4974.719911444554</v>
       </c>
       <c r="R15">
-        <v>34941.22936895362</v>
+        <v>29848.31946866732</v>
       </c>
       <c r="S15">
-        <v>0.01754251002918112</v>
+        <v>0.0143483638023451</v>
       </c>
       <c r="T15">
-        <v>0.01250918599011729</v>
+        <v>0.01014363712289807</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H16">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I16">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J16">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>19632.17268494078</v>
+        <v>29215.16926424364</v>
       </c>
       <c r="R16">
-        <v>176689.554164467</v>
+        <v>262936.5233781928</v>
       </c>
       <c r="S16">
-        <v>0.05913888992003191</v>
+        <v>0.08426401578631483</v>
       </c>
       <c r="T16">
-        <v>0.06325600259268752</v>
+        <v>0.08935620922660527</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H17">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I17">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J17">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>304.7193588464573</v>
+        <v>225.202460617586</v>
       </c>
       <c r="R17">
-        <v>1828.316153078744</v>
+        <v>1351.214763705516</v>
       </c>
       <c r="S17">
-        <v>0.0009179200340442457</v>
+        <v>0.0006495414599504802</v>
       </c>
       <c r="T17">
-        <v>0.0006545490018711001</v>
+        <v>0.0004591961116108752</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H18">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I18">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J18">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>14345.67019251791</v>
+        <v>14394.71867967114</v>
       </c>
       <c r="R18">
-        <v>86074.02115510748</v>
+        <v>86368.31207802685</v>
       </c>
       <c r="S18">
-        <v>0.04321411715144351</v>
+        <v>0.04151804807606932</v>
       </c>
       <c r="T18">
-        <v>0.03081505599523139</v>
+        <v>0.02935136155844136</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H19">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I19">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J19">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>9059.676099541453</v>
+        <v>10619.37320828112</v>
       </c>
       <c r="R19">
-        <v>54358.05659724872</v>
+        <v>63716.23924968674</v>
       </c>
       <c r="S19">
-        <v>0.02729087585771419</v>
+        <v>0.03062898672843051</v>
       </c>
       <c r="T19">
-        <v>0.01946053565706779</v>
+        <v>0.02165329309286686</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H20">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I20">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J20">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>3200.980864895647</v>
+        <v>2263.201898818353</v>
       </c>
       <c r="R20">
-        <v>12803.92345958259</v>
+        <v>9052.807595273413</v>
       </c>
       <c r="S20">
-        <v>0.009642460773096205</v>
+        <v>0.006527652768490119</v>
       </c>
       <c r="T20">
-        <v>0.004583887368927485</v>
+        <v>0.003076501351651105</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H21">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I21">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J21">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>10791.07007436774</v>
+        <v>13291.16567970477</v>
       </c>
       <c r="R21">
-        <v>64746.42044620642</v>
+        <v>79746.9940782286</v>
       </c>
       <c r="S21">
-        <v>0.03250643296026557</v>
+        <v>0.03833511914729492</v>
       </c>
       <c r="T21">
-        <v>0.0231796370701133</v>
+        <v>0.02710117634664842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H22">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I22">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J22">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>749.0943213824684</v>
+        <v>423.6717436369828</v>
       </c>
       <c r="R22">
-        <v>6741.848892442215</v>
+        <v>3813.045692732845</v>
       </c>
       <c r="S22">
-        <v>0.002256531017880686</v>
+        <v>0.001221977602496239</v>
       </c>
       <c r="T22">
-        <v>0.002413625485878303</v>
+        <v>0.001295823434237666</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H23">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I23">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J23">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>35266.0891592902</v>
+        <v>27080.67907186925</v>
       </c>
       <c r="R23">
-        <v>317394.8024336118</v>
+        <v>243726.1116468232</v>
       </c>
       <c r="S23">
-        <v>0.1062336501502501</v>
+        <v>0.07810760047893886</v>
       </c>
       <c r="T23">
-        <v>0.1136293910558958</v>
+        <v>0.08282775305040309</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H24">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I24">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J24">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>22271.48266989691</v>
+        <v>19978.14922246453</v>
       </c>
       <c r="R24">
-        <v>200443.3440290722</v>
+        <v>179803.3430021807</v>
       </c>
       <c r="S24">
-        <v>0.06708940386314177</v>
+        <v>0.05762208893047423</v>
       </c>
       <c r="T24">
-        <v>0.07176001291954021</v>
+        <v>0.0611042731170395</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H25">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I25">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J25">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>7868.999848990554</v>
+        <v>4257.745195347236</v>
       </c>
       <c r="R25">
-        <v>47213.99909394333</v>
+        <v>25546.47117208342</v>
       </c>
       <c r="S25">
-        <v>0.02370414743790259</v>
+        <v>0.01228042545671467</v>
       </c>
       <c r="T25">
-        <v>0.0169029168884407</v>
+        <v>0.008681699269944212</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H26">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I26">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J26">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>26527.78394175576</v>
+        <v>25004.57287653993</v>
       </c>
       <c r="R26">
-        <v>238750.0554758018</v>
+        <v>225041.1558888594</v>
       </c>
       <c r="S26">
-        <v>0.07991085446988146</v>
+        <v>0.07211957954245209</v>
       </c>
       <c r="T26">
-        <v>0.08547406324951136</v>
+        <v>0.07647786755466691</v>
       </c>
     </row>
   </sheetData>
